--- a/Codigo/preditivo.xlsx
+++ b/Codigo/preditivo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F22884-0A68-4D6B-BEC4-854CDEFA38A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A57BEA-C725-41A3-AFC6-7F1D54783039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,42 +92,12 @@
     <t>}</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>char</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>se</t>
-  </si>
-  <si>
-    <t>senao</t>
-  </si>
-  <si>
     <t>(</t>
   </si>
   <si>
     <t>)</t>
   </si>
   <si>
-    <t>faca</t>
-  </si>
-  <si>
-    <t>repita</t>
-  </si>
-  <si>
-    <t>ate</t>
-  </si>
-  <si>
-    <t>relop</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
@@ -140,28 +110,58 @@
     <t>/</t>
   </si>
   <si>
-    <t>function</t>
-  </si>
-  <si>
-    <t>enquanto</t>
-  </si>
-  <si>
     <t>,</t>
   </si>
   <si>
     <t>$</t>
   </si>
   <si>
-    <t>conschar</t>
-  </si>
-  <si>
-    <t>constint</t>
-  </si>
-  <si>
-    <t>constfloat</t>
-  </si>
-  <si>
     <t>ComandoAtribuicao'</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>SENAO</t>
+  </si>
+  <si>
+    <t>FACA</t>
+  </si>
+  <si>
+    <t>REPITA</t>
+  </si>
+  <si>
+    <t>ATE</t>
+  </si>
+  <si>
+    <t>CONSCHAR</t>
+  </si>
+  <si>
+    <t>RELOP</t>
+  </si>
+  <si>
+    <t>CONSTINT</t>
+  </si>
+  <si>
+    <t>CONSTFLOAT</t>
+  </si>
+  <si>
+    <t>FUNCTION</t>
+  </si>
+  <si>
+    <t>ENQUANTO</t>
   </si>
 </sst>
 </file>
@@ -179,6 +179,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -479,10 +480,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -490,7 +491,7 @@
     <col min="1" max="1" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
         <v>17</v>
@@ -499,76 +500,77 @@
         <v>18</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="U1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AB1" s="4"/>
+    </row>
+    <row r="2" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,7 +650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -728,7 +730,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -808,7 +810,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -888,7 +890,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -968,7 +970,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1048,7 +1050,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1128,7 +1130,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1208,7 +1210,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1288,7 +1290,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1368,7 +1370,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1448,7 +1450,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1528,7 +1530,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1608,7 +1610,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1688,7 +1690,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1930,7 +1932,7 @@
     </row>
     <row r="19" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
         <v>-1</v>

--- a/Codigo/preditivo.xlsx
+++ b/Codigo/preditivo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\compiladores\Codigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A57BEA-C725-41A3-AFC6-7F1D54783039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF1E61F-D0BA-4030-BDCB-415A5C6FFC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>S</t>
   </si>
@@ -162,13 +162,16 @@
   </si>
   <si>
     <t>ENQUANTO</t>
+  </si>
+  <si>
+    <t>NT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -201,6 +204,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -250,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -262,6 +272,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,8 +493,8 @@
   </sheetPr>
   <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -492,7 +503,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
+      <c r="A1" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
@@ -571,7 +584,7 @@
       <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">

--- a/Codigo/preditivo.xlsx
+++ b/Codigo/preditivo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\compiladores\Codigo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\Área de Trabalho\FACULDADE\COMPILADORES\compiladores\Codigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF1E61F-D0BA-4030-BDCB-415A5C6FFC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF575E4-942B-404E-A9C4-8D9C574AC640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
@@ -146,9 +146,6 @@
     <t>ATE</t>
   </si>
   <si>
-    <t>CONSCHAR</t>
-  </si>
-  <si>
     <t>RELOP</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>NT</t>
+  </si>
+  <si>
+    <t>CONSTCHAR</t>
   </si>
 </sst>
 </file>
@@ -493,8 +493,8 @@
   </sheetPr>
   <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -504,7 +504,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>17</v>
@@ -546,10 +546,10 @@
         <v>36</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>21</v>
@@ -564,16 +564,16 @@
         <v>24</v>
       </c>
       <c r="U1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="Y1" s="5" t="s">
         <v>25</v>

--- a/Codigo/preditivo.xlsx
+++ b/Codigo/preditivo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\compiladores\Codigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF1E61F-D0BA-4030-BDCB-415A5C6FFC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C34DDA2-1AA6-4796-B72D-722F64D7EAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>S</t>
   </si>
@@ -146,9 +146,6 @@
     <t>ATE</t>
   </si>
   <si>
-    <t>CONSCHAR</t>
-  </si>
-  <si>
     <t>RELOP</t>
   </si>
   <si>
@@ -165,6 +162,12 @@
   </si>
   <si>
     <t>NT</t>
+  </si>
+  <si>
+    <t>CONSTCHAR</t>
+  </si>
+  <si>
+    <t>ComandoBloco</t>
   </si>
 </sst>
 </file>
@@ -260,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -273,6 +276,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,7 +498,7 @@
   <dimension ref="A1:AB24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -504,7 +508,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>17</v>
@@ -546,10 +550,10 @@
         <v>36</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>21</v>
@@ -564,16 +568,16 @@
         <v>24</v>
       </c>
       <c r="U1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="Y1" s="5" t="s">
         <v>25</v>
@@ -1630,7 +1634,7 @@
       <c r="B15" s="2">
         <v>-1</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="8">
         <v>-1</v>
       </c>
       <c r="D15" s="3">
@@ -2024,32 +2028,84 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="2">
+        <v>35</v>
+      </c>
+      <c r="C20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>36</v>
+      </c>
+      <c r="E20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>36</v>
+      </c>
+      <c r="I20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J20" s="3">
+        <v>33</v>
+      </c>
+      <c r="K20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M20" s="2">
+        <v>36</v>
+      </c>
+      <c r="N20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O20" s="3">
+        <v>21</v>
+      </c>
+      <c r="P20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="T20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="U20" s="3">
+        <v>34</v>
+      </c>
+      <c r="V20" s="3">
+        <v>32</v>
+      </c>
+      <c r="W20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="X20" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="21" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>

--- a/Codigo/preditivo.xlsx
+++ b/Codigo/preditivo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\compiladores\Codigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C34DDA2-1AA6-4796-B72D-722F64D7EAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCB369A-AFA2-4BD7-9601-A2225E7E77C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>S</t>
   </si>
@@ -65,9 +65,6 @@
     <t>lista_ids</t>
   </si>
   <si>
-    <t xml:space="preserve">lista_ids’ </t>
-  </si>
-  <si>
     <t>cond</t>
   </si>
   <si>
@@ -168,6 +165,15 @@
   </si>
   <si>
     <t>ComandoBloco</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>lista_ids'</t>
   </si>
 </sst>
 </file>
@@ -495,10 +501,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB24"/>
+  <dimension ref="A1:AD24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -506,88 +512,94 @@
     <col min="1" max="1" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="P1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="4"/>
+      <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -661,13 +673,20 @@
         <v>-1</v>
       </c>
       <c r="Y2" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>1</v>
+        <f>Y4</f>
+        <v>-1</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -741,13 +760,20 @@
         <v>4</v>
       </c>
       <c r="Y3" s="2">
+        <f>Y5</f>
         <v>-1</v>
       </c>
       <c r="Z3" s="2">
         <v>-1</v>
       </c>
+      <c r="AA3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -826,8 +852,14 @@
       <c r="Z4" s="2">
         <v>-1</v>
       </c>
+      <c r="AA4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -906,8 +938,14 @@
       <c r="Z5" s="2">
         <v>-1</v>
       </c>
+      <c r="AA5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -980,14 +1018,20 @@
       <c r="X6" s="3">
         <v>17</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y6" s="3">
         <v>-1</v>
       </c>
       <c r="Z6" s="2">
         <v>-1</v>
       </c>
+      <c r="AA6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="7" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1066,8 +1110,14 @@
       <c r="Z7" s="2">
         <v>-1</v>
       </c>
+      <c r="AA7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>37</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1078,16 +1128,16 @@
         <v>-1</v>
       </c>
       <c r="D8" s="3">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E8" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F8" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G8" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H8" s="3">
         <v>14</v>
@@ -1140,14 +1190,20 @@
       <c r="X8" s="3">
         <v>17</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Y8" s="3">
         <v>-1</v>
       </c>
       <c r="Z8" s="2">
         <v>-1</v>
       </c>
+      <c r="AA8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1226,8 +1282,14 @@
       <c r="Z9" s="2">
         <v>-1</v>
       </c>
+      <c r="AA9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="10" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1301,13 +1363,19 @@
         <v>-1</v>
       </c>
       <c r="Y10" s="2">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z10" s="2">
         <v>-1</v>
       </c>
+      <c r="AA10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="11" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1386,90 +1454,102 @@
       <c r="Z11" s="2">
         <v>-1</v>
       </c>
+      <c r="AA11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="12" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="T12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="U12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="V12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="W12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="X12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Z12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="I12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="J12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="K12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="L12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="R12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="S12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="T12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="U12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="V12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="W12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="X12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>9</v>
-      </c>
-      <c r="Z12" s="2">
+      <c r="AA12" s="3">
+        <v>8</v>
+      </c>
+      <c r="AB12" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2">
         <v>-1</v>
@@ -1546,10 +1626,16 @@
       <c r="Z13" s="2">
         <v>-1</v>
       </c>
+      <c r="AA13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="14" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2">
         <v>-1</v>
@@ -1626,10 +1712,16 @@
       <c r="Z14" s="2">
         <v>-1</v>
       </c>
+      <c r="AA14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="15" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2">
         <v>-1</v>
@@ -1706,10 +1798,16 @@
       <c r="Z15" s="2">
         <v>-1</v>
       </c>
+      <c r="AA15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="16" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2">
         <v>-1</v>
@@ -1786,10 +1884,16 @@
       <c r="Z16" s="2">
         <v>-1</v>
       </c>
+      <c r="AA16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="17" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2">
         <v>-1</v>
@@ -1866,10 +1970,16 @@
       <c r="Z17" s="2">
         <v>-1</v>
       </c>
+      <c r="AA17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="18" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2">
         <v>-1</v>
@@ -1946,10 +2056,16 @@
       <c r="Z18" s="2">
         <v>-1</v>
       </c>
+      <c r="AA18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="19" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2">
         <v>-1</v>
@@ -2026,10 +2142,16 @@
       <c r="Z19" s="2">
         <v>-1</v>
       </c>
+      <c r="AA19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="20" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2">
         <v>35</v>
@@ -2106,8 +2228,14 @@
       <c r="Z20" s="2">
         <v>-1</v>
       </c>
+      <c r="AA20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="21" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2134,8 +2262,13 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H24" s="4"/>
     </row>
   </sheetData>

--- a/Codigo/preditivo.xlsx
+++ b/Codigo/preditivo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\compiladores\Codigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCB369A-AFA2-4BD7-9601-A2225E7E77C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07322E4-ACC9-4813-BDE5-05E0C893A2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
@@ -503,8 +503,8 @@
   </sheetPr>
   <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -694,7 +694,7 @@
         <v>-1</v>
       </c>
       <c r="C3" s="3">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D3" s="3">
         <v>2</v>
@@ -1128,7 +1128,7 @@
         <v>-1</v>
       </c>
       <c r="D8" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E8" s="3">
         <v>6</v>
@@ -1140,7 +1140,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I8" s="2">
         <v>-1</v>
@@ -1155,7 +1155,7 @@
         <v>-1</v>
       </c>
       <c r="M8" s="3">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="N8" s="2">
         <v>-1</v>
@@ -1188,7 +1188,7 @@
         <v>-1</v>
       </c>
       <c r="X8" s="3">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="Y8" s="3">
         <v>-1</v>
@@ -1363,7 +1363,7 @@
         <v>-1</v>
       </c>
       <c r="Y10" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z10" s="2">
         <v>-1</v>
@@ -1472,7 +1472,7 @@
         <v>-1</v>
       </c>
       <c r="D12" s="2">
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="E12" s="2">
         <v>-1</v>
@@ -1538,10 +1538,10 @@
         <v>-1</v>
       </c>
       <c r="Z12" s="3">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AA12" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB12" s="2">
         <v>-1</v>
@@ -1558,7 +1558,7 @@
         <v>-1</v>
       </c>
       <c r="D13" s="3">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2">
         <v>-1</v>
@@ -1576,7 +1576,7 @@
         <v>-1</v>
       </c>
       <c r="J13" s="3">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K13" s="2">
         <v>-1</v>
@@ -1609,10 +1609,10 @@
         <v>-1</v>
       </c>
       <c r="U13" s="3">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="V13" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="W13" s="2">
         <v>-1</v>
@@ -1641,7 +1641,7 @@
         <v>-1</v>
       </c>
       <c r="C14" s="2">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2">
         <v>-1</v>
@@ -1730,7 +1730,7 @@
         <v>-1</v>
       </c>
       <c r="D15" s="3">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2">
         <v>-1</v>
@@ -1748,7 +1748,7 @@
         <v>-1</v>
       </c>
       <c r="J15" s="3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K15" s="2">
         <v>-1</v>
@@ -1781,10 +1781,10 @@
         <v>-1</v>
       </c>
       <c r="U15" s="3">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="V15" s="3">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="W15" s="2">
         <v>-1</v>
@@ -1902,7 +1902,7 @@
         <v>-1</v>
       </c>
       <c r="D17" s="3">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2">
         <v>-1</v>
@@ -1920,7 +1920,7 @@
         <v>-1</v>
       </c>
       <c r="J17" s="3">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K17" s="2">
         <v>-1</v>
@@ -1953,10 +1953,10 @@
         <v>-1</v>
       </c>
       <c r="U17" s="3">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="V17" s="3">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="W17" s="2">
         <v>-1</v>
@@ -2027,10 +2027,10 @@
         <v>-1</v>
       </c>
       <c r="Q18" s="2">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="R18" s="2">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S18" s="3">
         <v>28</v>
@@ -2074,7 +2074,7 @@
         <v>-1</v>
       </c>
       <c r="D19" s="3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2">
         <v>-1</v>
@@ -2092,7 +2092,7 @@
         <v>-1</v>
       </c>
       <c r="J19" s="3">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="K19" s="2">
         <v>-1</v>
@@ -2125,10 +2125,10 @@
         <v>-1</v>
       </c>
       <c r="U19" s="3">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="V19" s="3">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="W19" s="2">
         <v>-1</v>
